--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/玩家等级配置_player.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/玩家等级配置_player.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">player!$B$2:$H$1904</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -714,7 +714,7 @@
   <dimension ref="A1:H1925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
